--- a/samples/idaithalam-excel-apitesting/src/test/resources/virtualan_collection_testcase_7.xlsx
+++ b/samples/idaithalam-excel-apitesting/src/test/resources/virtualan_collection_testcase_7.xlsx
@@ -208,14 +208,14 @@
     <t>@xml</t>
   </si>
   <si>
-    <t>//CelsiusToFahrenheitResult</t>
+    <t>//*[local-name()='CelsiusToFahrenheitResult']/text()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -265,13 +265,8 @@
       <color rgb="FF008000"/>
       <name val="Consolas"/>
     </font>
-    <font>
-      <b/>
-      <color rgb="FF000080"/>
-      <name val="Consolas"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -284,12 +279,6 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEFEFEF"/>
-        <bgColor rgb="FFEFEFEF"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -297,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -326,9 +315,6 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -564,6 +550,7 @@
     <col customWidth="1" min="8" max="8" width="23.29"/>
     <col customWidth="1" min="12" max="12" width="49.29"/>
     <col customWidth="1" min="13" max="13" width="24.29"/>
+    <col customWidth="1" min="16" max="16" width="44.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -714,7 +701,7 @@
       <c r="M4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O4" t="s">
         <v>34</v>
       </c>
       <c r="P4" s="8" t="s">
@@ -749,7 +736,7 @@
       <c r="O5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="P5" s="10" t="s">
+      <c r="P5" t="s">
         <v>49</v>
       </c>
     </row>

--- a/samples/idaithalam-excel-apitesting/src/test/resources/virtualan_collection_testcase_7.xlsx
+++ b/samples/idaithalam-excel-apitesting/src/test/resources/virtualan_collection_testcase_7.xlsx
@@ -1,7 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
   <sheets>
     <sheet state="visible" name="API-Testing" sheetId="1" r:id="rId4"/>
   </sheets>
@@ -93,8 +96,8 @@
         <rFont val="Inconsolata"/>
         <b/>
         <color rgb="FF000000"/>
-        <sz val="11.0"/>
-        <u/>
+        <sz val="11"/>
+        <u val="single"/>
       </rPr>
       <t>tag=</t>
     </r>
@@ -103,8 +106,8 @@
         <rFont val="Inconsolata"/>
         <b/>
         <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <sz val="11"/>
+        <u val="single"/>
       </rPr>
       <t>grey</t>
     </r>
@@ -124,8 +127,8 @@
         <rFont val="Inconsolata"/>
         <b/>
         <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <sz val="11"/>
+        <u val="single"/>
       </rPr>
       <t>https://live.virtualandemo.com/api/pets/findByTags?tags=</t>
     </r>
@@ -134,8 +137,8 @@
         <rFont val="Inconsolata"/>
         <b/>
         <color rgb="FF000000"/>
-        <sz val="11.0"/>
-        <u/>
+        <sz val="11"/>
+        <u val="single"/>
       </rPr>
       <t>[tag]</t>
     </r>
@@ -157,13 +160,19 @@
   </si>
   <si>
     <r>
-      <rPr/>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
+      </rPr>
       <t>id;name;</t>
     </r>
     <r>
       <rPr>
+        <rFont val="Calibri"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <sz val="12"/>
+        <u val="single"/>
       </rPr>
       <t>category.id</t>
     </r>
@@ -209,61 +218,96 @@
   </si>
   <si>
     <t>//*[local-name()='CelsiusToFahrenheitResult']/text()</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>ExcludeFields</t>
+  </si>
+  <si>
+    <t>StatusCode</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Tags</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <numFmts count="8">
+    <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);(&quot;$&quot;#,##0)"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red](&quot;$&quot;#,##0)"/>
+    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);(&quot;$&quot;#,##0.00)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red](&quot;$&quot;#,##0.00)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* (#,##0);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* (#,##0);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* (#,##0.00);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* (#,##0.00);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="10">
     <font>
-      <sz val="10.0"/>
+      <name val="Arial"/>
       <color rgb="FF000000"/>
+      <sz val="10"/>
+    </font>
+    <font>
       <name val="Arial"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
       <b/>
       <color rgb="FF008000"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <color rgb="FF505050"/>
+      <sz val="9"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <name val="Docs-Inconsolata"/>
+      <b/>
+      <color rgb="FF1155CC"/>
+      <sz val="11"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <name val="Inconsolata"/>
+      <b/>
+      <color rgb="FF1155CC"/>
+      <sz val="11"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="FF0000FF"/>
+      <sz val="12"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
+    </font>
+    <font>
       <name val="Consolas"/>
-    </font>
-    <font>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="9.0"/>
-      <color rgb="FF505050"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <b/>
-      <u/>
-      <sz val="11.0"/>
-      <color rgb="FF1155CC"/>
-      <name val="Docs-Inconsolata"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11.0"/>
-      <color rgb="FF1155CC"/>
-      <name val="Inconsolata"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-    </font>
-    <font/>
-    <font>
-      <b/>
-      <u/>
       <color rgb="FF008000"/>
-      <name val="Consolas"/>
+      <sz val="12"/>
+      <u val="single"/>
     </font>
   </fonts>
   <fills count="3">
@@ -284,42 +328,28 @@
     <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -535,22 +565,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection pane="topLeft" activeCell="M1" sqref="M1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="14.43" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="18.14"/>
-    <col customWidth="1" min="3" max="3" width="176.14"/>
-    <col customWidth="1" min="6" max="6" width="21.71"/>
-    <col customWidth="1" min="8" max="8" width="23.29"/>
-    <col customWidth="1" min="12" max="12" width="49.29"/>
-    <col customWidth="1" min="13" max="13" width="24.29"/>
-    <col customWidth="1" min="16" max="16" width="44.0"/>
+    <col min="2" max="2" width="18.14" customWidth="1"/>
+    <col min="3" max="3" width="176.14" customWidth="1"/>
+    <col min="7" max="7" width="23.29" customWidth="1"/>
+    <col min="11" max="11" width="49.29" customWidth="1"/>
+    <col min="12" max="12" width="24.29" customWidth="1"/>
+    <col min="14" max="14" width="44" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -570,36 +601,30 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -619,25 +644,25 @@
       <c r="E2" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="G2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="1">
-        <v>200.0</v>
-      </c>
-      <c r="M2" s="5" t="s">
+      <c r="J2" s="1">
+        <v>200</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -654,22 +679,22 @@
       <c r="D3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="1">
-        <v>200.0</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="J3" s="1">
+        <v>200</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>35</v>
       </c>
     </row>
@@ -689,22 +714,22 @@
       <c r="E4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="1">
-        <v>200.0</v>
-      </c>
-      <c r="M4" s="1" t="s">
+      <c r="J4" s="1">
+        <v>200</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O4" t="s">
+      <c r="M4" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="N4" s="8" t="s">
         <v>42</v>
       </c>
     </row>
@@ -724,19 +749,19 @@
       <c r="E5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="1">
-        <v>200.0</v>
-      </c>
-      <c r="O5" s="1" t="s">
+      <c r="J5" s="1">
+        <v>200</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="P5" t="s">
+      <c r="N5" t="s">
         <v>49</v>
       </c>
     </row>
@@ -747,12 +772,12 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C2"/>
-    <hyperlink r:id="rId2" ref="M2"/>
-    <hyperlink r:id="rId3" ref="C3"/>
-    <hyperlink r:id="rId4" ref="P3"/>
-    <hyperlink r:id="rId5" ref="C4"/>
-    <hyperlink r:id="rId6" ref="C5"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="M2" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="P3" r:id="rId4"/>
+    <hyperlink ref="C4" r:id="rId5"/>
+    <hyperlink ref="C5" r:id="rId6"/>
   </hyperlinks>
   <drawing r:id="rId7"/>
 </worksheet>

--- a/samples/idaithalam-excel-apitesting/src/test/resources/virtualan_collection_testcase_7.xlsx
+++ b/samples/idaithalam-excel-apitesting/src/test/resources/virtualan_collection_testcase_7.xlsx
@@ -234,11 +234,35 @@
   <si>
     <t>Tags</t>
   </si>
+  <si>
+    <t>IncludesByPath</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@xml </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @ smoketest</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @smoketest</t>
+  </si>
+  <si>
+    <t>@pet @smoketest</t>
+  </si>
+  <si>
+    <t>@xml @smoketest</t>
+  </si>
+  <si>
+    <t>petId=id;petName=name;category_name=category.name</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="8" mc:Ignorable="x14ac">
   <numFmts count="8">
     <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);(&quot;$&quot;#,##0)"/>
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red](&quot;$&quot;#,##0)"/>
@@ -249,7 +273,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* (#,##0.00);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* (#,##0.00);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="28">
     <font>
       <name val="Arial"/>
       <color rgb="FF000000"/>
@@ -309,8 +333,119 @@
       <sz val="12"/>
       <u val="single"/>
     </font>
+    <font>
+      <name val="Consolas"/>
+      <b/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <color rgb="FF000000"/>
+      <sz val="9"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <name val="Docs-Inconsolata"/>
+      <b/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <name val="Inconsolata"/>
+      <b/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <b/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <b/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <b/>
+      <color rgb="FF000000"/>
+      <sz val="9"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <b/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Docs-Inconsolata"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <name val="Inconsolata"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <sz val="9"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <u val="single"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -323,14 +458,41 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CCFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -347,6 +509,75 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -571,197 +802,214 @@
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection pane="topLeft" activeCell="M1" sqref="M1"/>
+      <selection pane="topLeft" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="14.43" defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="18.53" customWidth="1"/>
     <col min="2" max="2" width="18.14" customWidth="1"/>
-    <col min="3" max="3" width="176.14" customWidth="1"/>
-    <col min="7" max="7" width="23.29" customWidth="1"/>
-    <col min="11" max="11" width="49.29" customWidth="1"/>
+    <col min="3" max="3" width="65.64" customWidth="1"/>
+    <col min="4" max="4" width="24.38" customWidth="1"/>
+    <col min="5" max="5" width="19.71" customWidth="1"/>
+    <col min="6" max="6" width="20.26" customWidth="1"/>
+    <col min="7" max="7" width="29.59" customWidth="1"/>
+    <col min="11" max="11" width="62.83" customWidth="1"/>
     <col min="12" max="12" width="24.29" customWidth="1"/>
     <col min="14" max="14" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="38" customFormat="1">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>15</v>
+      <c r="N1" s="50" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+    <row r="2" s="38" customFormat="1">
+      <c r="A2" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="43">
         <v>200</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="K2" s="46"/>
+      <c r="L2" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="M2" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" s="46"/>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+    <row r="3" s="38" customFormat="1">
+      <c r="A3" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="46"/>
+      <c r="F3" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="G3" s="46"/>
+      <c r="H3" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="1">
+      <c r="I3" s="46"/>
+      <c r="J3" s="43">
         <v>200</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" s="7" t="s">
+      <c r="K3" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="L3" s="46"/>
+      <c r="M3" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3" s="49" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+    <row r="4" s="38" customFormat="1">
+      <c r="A4" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="G4" s="46"/>
+      <c r="H4" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="1">
+      <c r="I4" s="46"/>
+      <c r="J4" s="43">
         <v>200</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="K4" s="46"/>
+      <c r="L4" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="M4" t="s">
-        <v>34</v>
-      </c>
-      <c r="N4" s="8" t="s">
+      <c r="M4" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" s="43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
+    <row ht="13.5" customHeight="1" r="5" s="38" customFormat="1">
+      <c r="A5" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="G5" s="46"/>
+      <c r="H5" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="1">
+      <c r="I5" s="46"/>
+      <c r="J5" s="43">
         <v>200</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="N5" s="46" t="s">
         <v>49</v>
       </c>
     </row>

--- a/samples/idaithalam-excel-apitesting/src/test/resources/virtualan_collection_testcase_7.xlsx
+++ b/samples/idaithalam-excel-apitesting/src/test/resources/virtualan_collection_testcase_7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Extra\November-28\idaithalam\samples\idaithalam-excel-apitesting\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Extra\Conflict Resolving\idaithalam\samples\idaithalam-excel-apitesting\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E039DCF3-8BA2-46F2-8A58-3752F23515FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA17977E-1A13-42AF-987A-76B24DA1DB5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="API-Testing" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -197,6 +197,12 @@
   </si>
   <si>
     <t>petId=id;petName=name;category_name=category.name</t>
+  </si>
+  <si>
+    <t>Resource</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -552,27 +558,27 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5546875" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="3" max="3" width="65.6640625" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1"/>
-    <col min="6" max="6" width="20.21875" customWidth="1"/>
-    <col min="7" max="7" width="29.5546875" customWidth="1"/>
-    <col min="11" max="11" width="62.77734375" customWidth="1"/>
-    <col min="12" max="12" width="24.33203125" customWidth="1"/>
-    <col min="14" max="14" width="44" customWidth="1"/>
+    <col min="2" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="65.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="7" max="7" width="20.21875" customWidth="1"/>
+    <col min="8" max="8" width="29.5546875" customWidth="1"/>
+    <col min="12" max="12" width="62.77734375" customWidth="1"/>
+    <col min="13" max="13" width="24.33203125" customWidth="1"/>
+    <col min="15" max="15" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -580,177 +586,189 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="5">
+      <c r="K2" s="5">
         <v>200</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="6"/>
+      <c r="M2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="6"/>
-      <c r="O2" s="8"/>
+      <c r="O2" s="6"/>
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
     </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="6"/>
+      <c r="I3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="5">
+      <c r="J3" s="6"/>
+      <c r="K3" s="5">
         <v>200</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="6"/>
+      <c r="N3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="O3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="8"/>
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
     </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="6"/>
+      <c r="I4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="5">
+      <c r="J4" s="6"/>
+      <c r="K4" s="5">
         <v>200</v>
       </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="6"/>
+      <c r="M4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="O4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="8"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G3">
+  <conditionalFormatting sqref="H3">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(G3))&gt;0</formula>
+      <formula>LEN(TRIM(H3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="M2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="P3" r:id="rId4" display="http://category.id/" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="N2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="Q3" r:id="rId4" display="http://category.id/" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
